--- a/Documentation/Test Plan.xlsx
+++ b/Documentation/Test Plan.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="19155" windowHeight="7140"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Test Plan" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="98">
   <si>
     <t>Graphical Enigma Simulator</t>
   </si>
@@ -47,9 +47,6 @@
     <t>Actual Result</t>
   </si>
   <si>
-    <t>Pass/Fail</t>
-  </si>
-  <si>
     <t>Encrypt</t>
   </si>
   <si>
@@ -78,13 +75,285 @@
   </si>
   <si>
     <t>Decrypt</t>
+  </si>
+  <si>
+    <t>Beta</t>
+  </si>
+  <si>
+    <t>Gamma</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>II</t>
+  </si>
+  <si>
+    <t>III</t>
+  </si>
+  <si>
+    <t>IV</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>VI</t>
+  </si>
+  <si>
+    <t>VII</t>
+  </si>
+  <si>
+    <t>VIII</t>
+  </si>
+  <si>
+    <t>TEST</t>
+  </si>
+  <si>
+    <t>ENIGMA</t>
+  </si>
+  <si>
+    <t>STRING</t>
+  </si>
+  <si>
+    <t>WORD</t>
+  </si>
+  <si>
+    <t>ENCRYPT</t>
+  </si>
+  <si>
+    <t>DECRYPT</t>
+  </si>
+  <si>
+    <t>ROTOR</t>
+  </si>
+  <si>
+    <t>HIMYNAMEIS</t>
+  </si>
+  <si>
+    <t>BETA</t>
+  </si>
+  <si>
+    <t>GAMMA</t>
+  </si>
+  <si>
+    <t>QWERTY</t>
+  </si>
+  <si>
+    <t>EXCEL</t>
+  </si>
+  <si>
+    <t>TESTING</t>
+  </si>
+  <si>
+    <t>ONE</t>
+  </si>
+  <si>
+    <t>TWO</t>
+  </si>
+  <si>
+    <t>FOUR</t>
+  </si>
+  <si>
+    <t>FIVE</t>
+  </si>
+  <si>
+    <t>SIX</t>
+  </si>
+  <si>
+    <t>NINE</t>
+  </si>
+  <si>
+    <t>TEN</t>
+  </si>
+  <si>
+    <t>THREE</t>
+  </si>
+  <si>
+    <t>SEVEN</t>
+  </si>
+  <si>
+    <t>EIGHT</t>
+  </si>
+  <si>
+    <t>ZERO</t>
+  </si>
+  <si>
+    <t>IMGUI</t>
+  </si>
+  <si>
+    <t>XZRS</t>
+  </si>
+  <si>
+    <t>WPDNUC</t>
+  </si>
+  <si>
+    <t>LMSRKS</t>
+  </si>
+  <si>
+    <t>ILQY</t>
+  </si>
+  <si>
+    <t>OVPQ</t>
+  </si>
+  <si>
+    <t>QYYQTOA</t>
+  </si>
+  <si>
+    <t>VFXLI</t>
+  </si>
+  <si>
+    <t>PQTDKFPTDP</t>
+  </si>
+  <si>
+    <t>GHYLTXW</t>
+  </si>
+  <si>
+    <t>ERYX</t>
+  </si>
+  <si>
+    <t>ZPUKQ</t>
+  </si>
+  <si>
+    <t>LHHVXU</t>
+  </si>
+  <si>
+    <t>KHKGU</t>
+  </si>
+  <si>
+    <t>CPRSFZR</t>
+  </si>
+  <si>
+    <t>USMA</t>
+  </si>
+  <si>
+    <t>NCHBG</t>
+  </si>
+  <si>
+    <t>NRL</t>
+  </si>
+  <si>
+    <t>POB</t>
+  </si>
+  <si>
+    <t>CWHNP</t>
+  </si>
+  <si>
+    <t>PGWF</t>
+  </si>
+  <si>
+    <t>DUPO</t>
+  </si>
+  <si>
+    <t>YFW</t>
+  </si>
+  <si>
+    <t>VDRJJ</t>
+  </si>
+  <si>
+    <t>VOXYW</t>
+  </si>
+  <si>
+    <t>WYFS</t>
+  </si>
+  <si>
+    <t>JVU</t>
+  </si>
+  <si>
+    <t>RXOV</t>
+  </si>
+  <si>
+    <t>SKIPK</t>
+  </si>
+  <si>
+    <t>FPB</t>
+  </si>
+  <si>
+    <t>MTX</t>
+  </si>
+  <si>
+    <t>MOCBV</t>
+  </si>
+  <si>
+    <t>AYTX</t>
+  </si>
+  <si>
+    <t>MDGC</t>
+  </si>
+  <si>
+    <t>MJT</t>
+  </si>
+  <si>
+    <t>KKBHA</t>
+  </si>
+  <si>
+    <t>IQKLE</t>
+  </si>
+  <si>
+    <t>FFFU</t>
+  </si>
+  <si>
+    <t>QJR</t>
+  </si>
+  <si>
+    <t>AAAAAAAAAAAAAAAAAAAAAAAAAAA</t>
+  </si>
+  <si>
+    <t>TXWFDWEHXEWDPVETVXFUDFHLVGT</t>
+  </si>
+  <si>
+    <t>This is to ensure that the original letter does not produce itself, even after it has been pressed more than 26 times, which means a full cycle is complete</t>
+  </si>
+  <si>
+    <t>It was important here to ensure there were more than 26 characters of the same letter entered</t>
+  </si>
+  <si>
+    <t>During this test, an error was made in entering the ciphered text, however backspace was pressed. From this we can gather that the simulator is able to reverse the movement of the rotor key.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF33CC33"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Pass</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Fail</t>
+    </r>
+  </si>
+  <si>
+    <t>Pass</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -92,16 +361,62 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1" tint="0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF33CC33"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF33CC33"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -109,13 +424,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -124,6 +462,12 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF33CC33"/>
+      <color rgb="FFF7F7F7"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -398,19 +742,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="E85" sqref="E85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="23.7109375" customWidth="1"/>
     <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.7109375" customWidth="1"/>
-    <col min="6" max="6" width="19.5703125" customWidth="1"/>
-    <col min="7" max="7" width="17.140625" customWidth="1"/>
+    <col min="5" max="7" width="36.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14" customWidth="1"/>
     <col min="9" max="9" width="11.28515625" customWidth="1"/>
   </cols>
@@ -433,10 +775,10 @@
         <v>5</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>3</v>
@@ -448,13 +790,13 @@
         <v>6</v>
       </c>
       <c r="H5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="J5" s="1" t="s">
-        <v>7</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -462,19 +804,25 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" t="s">
-        <v>15</v>
+        <v>7</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" t="s">
-        <v>14</v>
+        <v>28</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G6" t="s">
+        <v>53</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -482,7 +830,2062 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
         <v>17</v>
+      </c>
+      <c r="E7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" t="s">
+        <v>28</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G8" t="s">
+        <v>54</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" t="s">
+        <v>29</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G10" t="s">
+        <v>55</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>6</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" t="s">
+        <v>30</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>7</v>
+      </c>
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" t="s">
+        <v>13</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>8</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G13" t="s">
+        <v>8</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>9</v>
+      </c>
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G14" t="s">
+        <v>56</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>10</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" t="s">
+        <v>56</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G15" t="s">
+        <v>31</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>11</v>
+      </c>
+      <c r="B16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G16" t="s">
+        <v>57</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>12</v>
+      </c>
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" t="s">
+        <v>57</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G17" t="s">
+        <v>28</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>13</v>
+      </c>
+      <c r="B18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" t="s">
+        <v>32</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G18" t="s">
+        <v>58</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>14</v>
+      </c>
+      <c r="B19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>58</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G19" t="s">
+        <v>32</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>15</v>
+      </c>
+      <c r="B20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>34</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G20" t="s">
+        <v>59</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>16</v>
+      </c>
+      <c r="B21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21" t="s">
+        <v>59</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G21" t="s">
+        <v>34</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>17</v>
+      </c>
+      <c r="B22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" t="s">
+        <v>35</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G22" t="s">
+        <v>60</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>18</v>
+      </c>
+      <c r="B23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23" t="s">
+        <v>60</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G23" t="s">
+        <v>35</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>19</v>
+      </c>
+      <c r="B24" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" t="s">
+        <v>20</v>
+      </c>
+      <c r="E24" t="s">
+        <v>33</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G24" t="s">
+        <v>61</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>20</v>
+      </c>
+      <c r="B25" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E25" t="s">
+        <v>61</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G25" t="s">
+        <v>33</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>21</v>
+      </c>
+      <c r="B26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D26" t="s">
+        <v>17</v>
+      </c>
+      <c r="E26" t="s">
+        <v>36</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G26" t="s">
+        <v>62</v>
+      </c>
+      <c r="J26" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>22</v>
+      </c>
+      <c r="B27" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D27" t="s">
+        <v>17</v>
+      </c>
+      <c r="E27" t="s">
+        <v>62</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G27" t="s">
+        <v>36</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>23</v>
+      </c>
+      <c r="B28" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D28" t="s">
+        <v>18</v>
+      </c>
+      <c r="E28" t="s">
+        <v>37</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G28" t="s">
+        <v>63</v>
+      </c>
+      <c r="J28" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D29" t="s">
+        <v>18</v>
+      </c>
+      <c r="E29" t="s">
+        <v>63</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G29" t="s">
+        <v>37</v>
+      </c>
+      <c r="J29" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>25</v>
+      </c>
+      <c r="B30" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D30" t="s">
+        <v>19</v>
+      </c>
+      <c r="E30" t="s">
+        <v>38</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G30" t="s">
+        <v>64</v>
+      </c>
+      <c r="J30" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>26</v>
+      </c>
+      <c r="B31" t="s">
+        <v>16</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D31" t="s">
+        <v>19</v>
+      </c>
+      <c r="E31" t="s">
+        <v>64</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G31" t="s">
+        <v>38</v>
+      </c>
+      <c r="J31" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>27</v>
+      </c>
+      <c r="B32" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D32" t="s">
+        <v>15</v>
+      </c>
+      <c r="E32" t="s">
+        <v>39</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G32" t="s">
+        <v>65</v>
+      </c>
+      <c r="J32" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>28</v>
+      </c>
+      <c r="B33" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D33" t="s">
+        <v>15</v>
+      </c>
+      <c r="E33" t="s">
+        <v>65</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G33" t="s">
+        <v>39</v>
+      </c>
+      <c r="J33" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>29</v>
+      </c>
+      <c r="B34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D34" t="s">
+        <v>20</v>
+      </c>
+      <c r="E34" t="s">
+        <v>40</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G34" t="s">
+        <v>66</v>
+      </c>
+      <c r="J34" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>30</v>
+      </c>
+      <c r="B35" t="s">
+        <v>16</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D35" t="s">
+        <v>20</v>
+      </c>
+      <c r="E35" t="s">
+        <v>66</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G35" t="s">
+        <v>40</v>
+      </c>
+      <c r="J35" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>31</v>
+      </c>
+      <c r="B36" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D36" t="s">
+        <v>17</v>
+      </c>
+      <c r="E36" t="s">
+        <v>36</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G36" t="s">
+        <v>67</v>
+      </c>
+      <c r="J36" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>32</v>
+      </c>
+      <c r="B37" t="s">
+        <v>16</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D37" t="s">
+        <v>17</v>
+      </c>
+      <c r="E37" t="s">
+        <v>67</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G37" t="s">
+        <v>36</v>
+      </c>
+      <c r="J37" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>33</v>
+      </c>
+      <c r="B38" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D38" t="s">
+        <v>18</v>
+      </c>
+      <c r="E38" t="s">
+        <v>37</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G38" t="s">
+        <v>68</v>
+      </c>
+      <c r="J38" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>34</v>
+      </c>
+      <c r="B39" t="s">
+        <v>16</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D39" t="s">
+        <v>18</v>
+      </c>
+      <c r="E39" t="s">
+        <v>68</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G39" t="s">
+        <v>37</v>
+      </c>
+      <c r="J39" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>35</v>
+      </c>
+      <c r="B40" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D40" t="s">
+        <v>19</v>
+      </c>
+      <c r="E40" t="s">
+        <v>41</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G40" t="s">
+        <v>69</v>
+      </c>
+      <c r="J40" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>36</v>
+      </c>
+      <c r="B41" t="s">
+        <v>16</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D41" t="s">
+        <v>19</v>
+      </c>
+      <c r="E41" t="s">
+        <v>69</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G41" t="s">
+        <v>41</v>
+      </c>
+      <c r="J41" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>37</v>
+      </c>
+      <c r="B42" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D42" t="s">
+        <v>15</v>
+      </c>
+      <c r="E42" t="s">
+        <v>42</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G42" t="s">
+        <v>70</v>
+      </c>
+      <c r="J42" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>38</v>
+      </c>
+      <c r="B43" t="s">
+        <v>16</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D43" t="s">
+        <v>15</v>
+      </c>
+      <c r="E43" t="s">
+        <v>70</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G43" t="s">
+        <v>42</v>
+      </c>
+      <c r="J43" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>39</v>
+      </c>
+      <c r="B44" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D44" t="s">
+        <v>20</v>
+      </c>
+      <c r="E44" t="s">
+        <v>48</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G44" t="s">
+        <v>71</v>
+      </c>
+      <c r="J44" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>40</v>
+      </c>
+      <c r="B45" t="s">
+        <v>16</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D45" t="s">
+        <v>20</v>
+      </c>
+      <c r="E45" t="s">
+        <v>71</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G45" t="s">
+        <v>48</v>
+      </c>
+      <c r="J45" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>41</v>
+      </c>
+      <c r="B46" t="s">
+        <v>7</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E46" t="s">
+        <v>43</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G46" t="s">
+        <v>72</v>
+      </c>
+      <c r="J46" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>42</v>
+      </c>
+      <c r="B47" t="s">
+        <v>16</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D47" t="s">
+        <v>17</v>
+      </c>
+      <c r="E47" t="s">
+        <v>72</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G47" t="s">
+        <v>43</v>
+      </c>
+      <c r="J47" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>43</v>
+      </c>
+      <c r="B48" t="s">
+        <v>7</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D48" t="s">
+        <v>18</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="G48" t="s">
+        <v>73</v>
+      </c>
+      <c r="J48" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>44</v>
+      </c>
+      <c r="B49" t="s">
+        <v>16</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D49" t="s">
+        <v>18</v>
+      </c>
+      <c r="E49" t="s">
+        <v>73</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G49" t="s">
+        <v>44</v>
+      </c>
+      <c r="J49" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>45</v>
+      </c>
+      <c r="B50" t="s">
+        <v>7</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D50" t="s">
+        <v>19</v>
+      </c>
+      <c r="E50" t="s">
+        <v>45</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G50" t="s">
+        <v>74</v>
+      </c>
+      <c r="J50" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>46</v>
+      </c>
+      <c r="B51" t="s">
+        <v>16</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D51" t="s">
+        <v>19</v>
+      </c>
+      <c r="E51" t="s">
+        <v>74</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G51" t="s">
+        <v>45</v>
+      </c>
+      <c r="J51" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>47</v>
+      </c>
+      <c r="B52" t="s">
+        <v>7</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D52" t="s">
+        <v>15</v>
+      </c>
+      <c r="E52" t="s">
+        <v>49</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G52" t="s">
+        <v>75</v>
+      </c>
+      <c r="J52" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>48</v>
+      </c>
+      <c r="B53" t="s">
+        <v>16</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D53" t="s">
+        <v>15</v>
+      </c>
+      <c r="E53" t="s">
+        <v>75</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G53" t="s">
+        <v>49</v>
+      </c>
+      <c r="J53" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>49</v>
+      </c>
+      <c r="B54" t="s">
+        <v>7</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D54" t="s">
+        <v>20</v>
+      </c>
+      <c r="E54" t="s">
+        <v>50</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G54" t="s">
+        <v>76</v>
+      </c>
+      <c r="J54" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>50</v>
+      </c>
+      <c r="B55" t="s">
+        <v>16</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D55" t="s">
+        <v>20</v>
+      </c>
+      <c r="E55" t="s">
+        <v>76</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G55" t="s">
+        <v>50</v>
+      </c>
+      <c r="J55" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>51</v>
+      </c>
+      <c r="B56" t="s">
+        <v>7</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D56" t="s">
+        <v>17</v>
+      </c>
+      <c r="E56" t="s">
+        <v>46</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G56" t="s">
+        <v>77</v>
+      </c>
+      <c r="J56" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>52</v>
+      </c>
+      <c r="B57" t="s">
+        <v>16</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D57" t="s">
+        <v>17</v>
+      </c>
+      <c r="E57" t="s">
+        <v>77</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="J57" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>53</v>
+      </c>
+      <c r="B58" t="s">
+        <v>7</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D58" t="s">
+        <v>18</v>
+      </c>
+      <c r="E58" t="s">
+        <v>47</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G58" t="s">
+        <v>78</v>
+      </c>
+      <c r="J58" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>54</v>
+      </c>
+      <c r="B59" t="s">
+        <v>16</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D59" t="s">
+        <v>18</v>
+      </c>
+      <c r="E59" t="s">
+        <v>78</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G59" t="s">
+        <v>47</v>
+      </c>
+      <c r="J59" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>55</v>
+      </c>
+      <c r="B60" t="s">
+        <v>7</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D60" t="s">
+        <v>19</v>
+      </c>
+      <c r="E60" t="s">
+        <v>51</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G60" t="s">
+        <v>79</v>
+      </c>
+      <c r="J60" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>56</v>
+      </c>
+      <c r="B61" t="s">
+        <v>16</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D61" t="s">
+        <v>19</v>
+      </c>
+      <c r="E61" t="s">
+        <v>79</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G61" t="s">
+        <v>51</v>
+      </c>
+      <c r="J61" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>57</v>
+      </c>
+      <c r="B62" t="s">
+        <v>7</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D62" t="s">
+        <v>15</v>
+      </c>
+      <c r="E62" t="s">
+        <v>52</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="G62" t="s">
+        <v>80</v>
+      </c>
+      <c r="J62" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>58</v>
+      </c>
+      <c r="B63" t="s">
+        <v>16</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D63" t="s">
+        <v>15</v>
+      </c>
+      <c r="E63" t="s">
+        <v>80</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G63" t="s">
+        <v>52</v>
+      </c>
+      <c r="J63" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>59</v>
+      </c>
+      <c r="B64" t="s">
+        <v>7</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D64" t="s">
+        <v>20</v>
+      </c>
+      <c r="E64" t="s">
+        <v>42</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="G64" t="s">
+        <v>81</v>
+      </c>
+      <c r="J64" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>60</v>
+      </c>
+      <c r="B65" t="s">
+        <v>16</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D65" t="s">
+        <v>20</v>
+      </c>
+      <c r="E65" t="s">
+        <v>81</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G65" t="s">
+        <v>42</v>
+      </c>
+      <c r="J65" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>61</v>
+      </c>
+      <c r="B66" t="s">
+        <v>7</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D66" t="s">
+        <v>17</v>
+      </c>
+      <c r="E66" t="s">
+        <v>42</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G66" t="s">
+        <v>82</v>
+      </c>
+      <c r="J66" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>62</v>
+      </c>
+      <c r="B67" t="s">
+        <v>16</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D67" t="s">
+        <v>17</v>
+      </c>
+      <c r="E67" t="s">
+        <v>82</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G67" t="s">
+        <v>42</v>
+      </c>
+      <c r="J67" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>63</v>
+      </c>
+      <c r="B68" t="s">
+        <v>7</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D68" t="s">
+        <v>18</v>
+      </c>
+      <c r="E68" t="s">
+        <v>48</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G68" t="s">
+        <v>83</v>
+      </c>
+      <c r="J68" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>64</v>
+      </c>
+      <c r="B69" t="s">
+        <v>16</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D69" t="s">
+        <v>18</v>
+      </c>
+      <c r="E69" t="s">
+        <v>83</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G69" t="s">
+        <v>48</v>
+      </c>
+      <c r="J69" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>65</v>
+      </c>
+      <c r="B70" t="s">
+        <v>7</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D70" t="s">
+        <v>19</v>
+      </c>
+      <c r="E70" t="s">
+        <v>43</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G70" t="s">
+        <v>84</v>
+      </c>
+      <c r="J70" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>66</v>
+      </c>
+      <c r="B71" t="s">
+        <v>16</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D71" t="s">
+        <v>19</v>
+      </c>
+      <c r="E71" t="s">
+        <v>84</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G71" t="s">
+        <v>43</v>
+      </c>
+      <c r="J71" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>67</v>
+      </c>
+      <c r="B72" t="s">
+        <v>7</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D72" t="s">
+        <v>15</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="G72" t="s">
+        <v>85</v>
+      </c>
+      <c r="J72" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>68</v>
+      </c>
+      <c r="B73" t="s">
+        <v>16</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D73" t="s">
+        <v>15</v>
+      </c>
+      <c r="E73" t="s">
+        <v>85</v>
+      </c>
+      <c r="F73" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G73" t="s">
+        <v>44</v>
+      </c>
+      <c r="J73" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>69</v>
+      </c>
+      <c r="B74" t="s">
+        <v>7</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D74" t="s">
+        <v>20</v>
+      </c>
+      <c r="E74" t="s">
+        <v>45</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G74" t="s">
+        <v>86</v>
+      </c>
+      <c r="J74" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>70</v>
+      </c>
+      <c r="B75" t="s">
+        <v>16</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D75" t="s">
+        <v>20</v>
+      </c>
+      <c r="E75" t="s">
+        <v>86</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G75" t="s">
+        <v>45</v>
+      </c>
+      <c r="J75" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>71</v>
+      </c>
+      <c r="B76" t="s">
+        <v>7</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D76" t="s">
+        <v>17</v>
+      </c>
+      <c r="E76" t="s">
+        <v>49</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="G76" t="s">
+        <v>87</v>
+      </c>
+      <c r="J76" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>72</v>
+      </c>
+      <c r="B77" t="s">
+        <v>16</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D77" t="s">
+        <v>17</v>
+      </c>
+      <c r="E77" t="s">
+        <v>87</v>
+      </c>
+      <c r="F77" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G77" t="s">
+        <v>49</v>
+      </c>
+      <c r="J77" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>73</v>
+      </c>
+      <c r="B78" t="s">
+        <v>7</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D78" t="s">
+        <v>18</v>
+      </c>
+      <c r="E78" t="s">
+        <v>50</v>
+      </c>
+      <c r="F78" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="G78" t="s">
+        <v>88</v>
+      </c>
+      <c r="J78" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>74</v>
+      </c>
+      <c r="B79" t="s">
+        <v>16</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D79" t="s">
+        <v>18</v>
+      </c>
+      <c r="E79" t="s">
+        <v>88</v>
+      </c>
+      <c r="F79" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G79" t="s">
+        <v>50</v>
+      </c>
+      <c r="J79" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>75</v>
+      </c>
+      <c r="B80" t="s">
+        <v>7</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D80" t="s">
+        <v>19</v>
+      </c>
+      <c r="E80" t="s">
+        <v>46</v>
+      </c>
+      <c r="F80" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G80" t="s">
+        <v>89</v>
+      </c>
+      <c r="J80" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>76</v>
+      </c>
+      <c r="B81" t="s">
+        <v>16</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D81" t="s">
+        <v>19</v>
+      </c>
+      <c r="E81" t="s">
+        <v>89</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="J81" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>77</v>
+      </c>
+      <c r="B82" t="s">
+        <v>7</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D82" t="s">
+        <v>15</v>
+      </c>
+      <c r="E82" t="s">
+        <v>47</v>
+      </c>
+      <c r="F82" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G82" t="s">
+        <v>90</v>
+      </c>
+      <c r="J82" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>78</v>
+      </c>
+      <c r="B83" t="s">
+        <v>16</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D83" t="s">
+        <v>15</v>
+      </c>
+      <c r="E83" t="s">
+        <v>90</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G83" t="s">
+        <v>47</v>
+      </c>
+      <c r="J83" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" ht="113.25" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>79</v>
+      </c>
+      <c r="B84" t="s">
+        <v>7</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D84" t="s">
+        <v>20</v>
+      </c>
+      <c r="E84" t="s">
+        <v>91</v>
+      </c>
+      <c r="F84" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G84" t="s">
+        <v>92</v>
+      </c>
+      <c r="H84" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="I84" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="J84" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" ht="135.75" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>80</v>
+      </c>
+      <c r="B85" t="s">
+        <v>16</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D85" t="s">
+        <v>20</v>
+      </c>
+      <c r="E85" t="s">
+        <v>92</v>
+      </c>
+      <c r="F85" t="s">
+        <v>91</v>
+      </c>
+      <c r="G85" t="s">
+        <v>91</v>
+      </c>
+      <c r="H85" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="J85" s="4" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/Test Plan.xlsx
+++ b/Documentation/Test Plan.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="99">
   <si>
     <t>Graphical Enigma Simulator</t>
   </si>
@@ -347,6 +347,9 @@
   </si>
   <si>
     <t>Pass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No tests failed and no bugs reported. </t>
   </si>
 </sst>
 </file>
@@ -742,10 +745,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J85"/>
+  <dimension ref="A1:J89"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E85" sqref="E85"/>
+    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
+      <selection activeCell="B90" sqref="B90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2888,6 +2891,11 @@
         <v>97</v>
       </c>
     </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B89" t="s">
+        <v>98</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
